--- a/summary.xlsx
+++ b/summary.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SyncStorage/Github/tw-etf-price-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16016BB6-46E7-6C4F-9233-E2AF06056747}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEB50A-C2F1-3B42-8137-57846BE6B8CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="440" windowWidth="24420" windowHeight="15040" xr2:uid="{A71A36B1-E094-D94C-87C2-78BC3610782B}"/>
+    <workbookView xWindow="780" yWindow="440" windowWidth="37620" windowHeight="21160" xr2:uid="{A71A36B1-E094-D94C-87C2-78BC3610782B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,11 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530B83C6-FDC5-B74E-91DB-AE38EA0A9CF6}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -484,137 +486,137 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B2">
+        <v>701</v>
+      </c>
+      <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.5235475883819102E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>43219</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>713</v>
       </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
         <v>6.7749184381682399E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
-      <c r="A3" s="1">
-        <v>43226</v>
-      </c>
-      <c r="B3">
-        <v>701</v>
-      </c>
-      <c r="C3">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B4">
+        <v>713</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2">
-        <v>9.6734329417813502E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1">
-      <c r="A4" s="1">
-        <v>43226</v>
-      </c>
-      <c r="B4">
-        <v>690</v>
-      </c>
-      <c r="C4">
-        <v>128</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>125</v>
-      </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="I4" s="2">
-        <v>1.16248513222672E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1">
+        <v>7.4150986620224999E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>43226</v>
       </c>
       <c r="B5">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2">
-        <v>1.19528434879612E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1">
+        <v>9.6734329417813502E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B6">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C6">
         <v>128</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -626,157 +628,157 @@
         <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>1.2954141129739501E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1">
+        <v>1.00855453638359E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B7">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2">
-        <v>1.3041522470302801E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1">
+        <v>1.128479198087E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B8">
         <v>690</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
-        <v>1.4414856559596899E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1">
+        <v>1.16248513222672E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>43226</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>713</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0.3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="I9" s="2">
-        <v>1.5428500870863499E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1">
+        <v>1.19528434879612E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B10">
+        <v>692</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.2954141129739501E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>43219</v>
       </c>
-      <c r="B10">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>0.2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.5532261507663199E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1">
-      <c r="A11" s="1">
-        <v>43226</v>
-      </c>
       <c r="B11">
-        <v>55</v>
+        <v>701</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>60</v>
       </c>
       <c r="I11" s="2">
-        <v>1.56424511806108E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1">
+        <v>1.3041522470302801E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B12">
         <v>56</v>
@@ -788,56 +790,56 @@
         <v>0.2</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2">
-        <v>1.6357034619431899E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1">
+        <v>1.32938904183295E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2">
-        <v>1.7594129700834499E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1">
+        <v>1.3382489851210201E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>43219</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>690</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -846,7 +848,7 @@
         <v>0.2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -855,47 +857,47 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I14" s="2">
-        <v>1.769911556039E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1">
+        <v>1.4414856559596899E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>43226</v>
       </c>
       <c r="B15">
-        <v>6204</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>128</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2">
-        <v>2.0379575920136001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1">
+        <v>1.5428500870863499E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>43219</v>
       </c>
       <c r="B16">
-        <v>6204</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -916,44 +918,44 @@
         <v>60</v>
       </c>
       <c r="I16" s="2">
-        <v>2.0750328840222199E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1">
+        <v>1.5532261507663199E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B17">
-        <v>692</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2">
-        <v>2.20024943700991E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1">
+        <v>1.56424511806108E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>43219</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -962,7 +964,7 @@
         <v>0.2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -971,21 +973,21 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2">
-        <v>2.2889920898402699E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1">
+        <v>1.6357034619431899E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B19">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>0.2</v>
@@ -994,33 +996,33 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2">
-        <v>2.3457805024615101E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1">
+        <v>1.7594129700834499E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>128</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -1032,15 +1034,15 @@
         <v>50</v>
       </c>
       <c r="I20" s="2">
-        <v>2.3508078108231201E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1">
+        <v>1.7686489348610199E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>43219</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -1061,76 +1063,76 @@
         <v>60</v>
       </c>
       <c r="I21" s="2">
-        <v>2.4573218543082399E-4</v>
+        <v>1.769911556039E-4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>6204</v>
       </c>
       <c r="C22">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="I22" s="2">
-        <v>2.5011540662186799E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1">
+        <v>1.90779447439126E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>43226</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>6204</v>
       </c>
       <c r="C23">
         <v>128</v>
       </c>
       <c r="D23">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2">
-        <v>2.5202891750571599E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1">
+        <v>2.0379575920136001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>6204</v>
       </c>
       <c r="C24">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>0.2</v>
@@ -1139,65 +1141,65 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2">
-        <v>2.54427899684136E-4</v>
+        <v>2.0750328840222199E-4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>692</v>
       </c>
       <c r="C25">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>0.2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>50</v>
       </c>
       <c r="I25" s="2">
-        <v>2.6047159917652602E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1">
+        <v>2.20024943700991E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1206,15 +1208,15 @@
         <v>60</v>
       </c>
       <c r="I26" s="2">
-        <v>2.6173890607121E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1">
+        <v>2.21380987689675E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>32</v>
@@ -1226,24 +1228,24 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>60</v>
       </c>
       <c r="I27" s="2">
-        <v>2.6422591957573998E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1">
+        <v>2.2797738007890599E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>43219</v>
       </c>
       <c r="B28">
-        <v>6203</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>32</v>
@@ -1252,7 +1254,7 @@
         <v>0.2</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -1261,79 +1263,79 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2">
-        <v>2.8794004271427698E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1">
+        <v>2.2889920898402699E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B29">
-        <v>6203</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>60</v>
       </c>
       <c r="I29" s="2">
-        <v>2.9017404885962601E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1">
+        <v>2.3457805024615101E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>43226</v>
       </c>
       <c r="B30">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>128</v>
       </c>
       <c r="D30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I30" s="2">
-        <v>3.31756369754051E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1">
+        <v>2.3508078108231201E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B31">
-        <v>6208</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>0.2</v>
@@ -1342,82 +1344,82 @@
         <v>2</v>
       </c>
       <c r="F31">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2.3776498661997399E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>256</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2.3918189884473799E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B33">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>128</v>
+      </c>
+      <c r="D33">
+        <v>0.4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>100</v>
       </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>50</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3.4615721475953799E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1">
-      <c r="A32" s="1">
-        <v>43219</v>
-      </c>
-      <c r="B32">
-        <v>53</v>
-      </c>
-      <c r="C32">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>0.2</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32">
-        <v>60</v>
-      </c>
-      <c r="I32" s="2">
-        <v>3.5046783353512398E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1">
-      <c r="A33" s="1">
-        <v>43219</v>
-      </c>
-      <c r="B33">
-        <v>6208</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>0.2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I33" s="2">
-        <v>3.5210108035243999E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1">
+        <v>2.4032358584614999E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>43219</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -1438,73 +1440,73 @@
         <v>60</v>
       </c>
       <c r="I34" s="2">
-        <v>5.3476292620568196E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1">
+        <v>2.4573218543082399E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2.5011540662186799E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>43226</v>
       </c>
-      <c r="B35">
-        <v>52</v>
-      </c>
-      <c r="C35">
-        <v>128</v>
-      </c>
-      <c r="D35">
-        <v>0.2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
-      <c r="I35" s="2">
-        <v>5.6535391777288101E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1">
-      <c r="A36" s="1">
-        <v>43219</v>
-      </c>
       <c r="B36">
-        <v>6201</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>60</v>
       </c>
       <c r="I36" s="2">
-        <v>5.7497821981087303E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
+        <v>2.5202891750571599E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>43226</v>
       </c>
       <c r="B37">
-        <v>6201</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>128</v>
@@ -1525,17 +1527,541 @@
         <v>50</v>
       </c>
       <c r="I37" s="2">
+        <v>2.54427899684136E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>128</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2.6047159917652602E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>0.3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>60</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2.6173890607121E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B40">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>60</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.6422591957573998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B41">
+        <v>6203</v>
+      </c>
+      <c r="C41">
+        <v>128</v>
+      </c>
+      <c r="D41">
+        <v>0.4</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2.7172730381910999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B42">
+        <v>6203</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>0.2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2.8794004271427698E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B43">
+        <v>6203</v>
+      </c>
+      <c r="C43">
+        <v>128</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>60</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2.9017404885962601E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>150</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>60</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3.2033479268041699E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B45">
+        <v>6208</v>
+      </c>
+      <c r="C45">
+        <v>32</v>
+      </c>
+      <c r="D45">
+        <v>0.2</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>60</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3.2171333247485201E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B46">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>0.3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>60</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3.31756369754051E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B47">
+        <v>6208</v>
+      </c>
+      <c r="C47">
+        <v>128</v>
+      </c>
+      <c r="D47">
+        <v>0.2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3.4615721475953799E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>60</v>
+      </c>
+      <c r="I48" s="2">
+        <v>3.5046783353512398E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B49">
+        <v>6208</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>60</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3.5210108035243999E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B50">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>150</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>60</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4.7094177183074201E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B51">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>60</v>
+      </c>
+      <c r="I51" s="2">
+        <v>5.3476292620568196E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B52">
+        <v>6201</v>
+      </c>
+      <c r="C52">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>0.2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>60</v>
+      </c>
+      <c r="I52" s="2">
+        <v>5.45353878987953E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>128</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5.6535391777288101E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B54">
+        <v>6201</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>0.2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>60</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5.7497821981087303E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B55">
+        <v>6201</v>
+      </c>
+      <c r="C55">
+        <v>128</v>
+      </c>
+      <c r="D55">
+        <v>0.2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2">
         <v>6.1650996406873001E-4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I37" xr:uid="{3A9CBD82-C3F7-684F-BA80-1E3649762DAB}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="50"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I55" xr:uid="{3A9CBD82-C3F7-684F-BA80-1E3649762DAB}">
+    <sortState ref="A2:I55">
+      <sortCondition ref="I1:I55"/>
+    </sortState>
   </autoFilter>
+  <sortState ref="A2:I38">
+    <sortCondition ref="A2:A38"/>
+    <sortCondition ref="B2:B38"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SyncStorage/Github/tw-etf-price-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEB50A-C2F1-3B42-8137-57846BE6B8CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F75000-D286-0C4C-ADDC-068F604F7E50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="440" windowWidth="37620" windowHeight="21160" xr2:uid="{A71A36B1-E094-D94C-87C2-78BC3610782B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530B83C6-FDC5-B74E-91DB-AE38EA0A9CF6}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -488,31 +488,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="B2">
-        <v>701</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2">
-        <v>5.5235475883819102E-5</v>
+        <v>2.5011540662186799E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -520,7 +520,7 @@
         <v>43219</v>
       </c>
       <c r="B3">
-        <v>713</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -529,7 +529,7 @@
         <v>0.2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -538,18 +538,18 @@
         <v>9</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2">
-        <v>6.7749184381682399E-5</v>
+        <v>2.4573218543082399E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="B4">
-        <v>713</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>32</v>
@@ -558,10 +558,10 @@
         <v>0.2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -570,18 +570,18 @@
         <v>60</v>
       </c>
       <c r="I4" s="2">
-        <v>7.4150986620224999E-5</v>
+        <v>5.3476292620568196E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B5">
-        <v>701</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -590,143 +590,143 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2">
-        <v>9.6734329417813502E-5</v>
+        <v>3.5046783353512398E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="B6">
-        <v>690</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2">
-        <v>1.00855453638359E-4</v>
+        <v>2.6422591957573998E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="B7">
-        <v>692</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2">
-        <v>1.128479198087E-4</v>
+        <v>1.5532261507663199E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B8">
-        <v>690</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I8" s="2">
-        <v>1.16248513222672E-4</v>
+        <v>1.6357034619431899E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B9">
-        <v>713</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2">
-        <v>1.19528434879612E-4</v>
+        <v>2.3457805024615101E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B10">
-        <v>692</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>0.2</v>
@@ -735,16 +735,16 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2">
-        <v>1.2954141129739501E-4</v>
+        <v>1.769911556039E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -752,7 +752,7 @@
         <v>43219</v>
       </c>
       <c r="B11">
-        <v>701</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -773,15 +773,15 @@
         <v>60</v>
       </c>
       <c r="I11" s="2">
-        <v>1.3041522470302801E-4</v>
+        <v>2.2889920898402699E-4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>690</v>
       </c>
       <c r="C12">
         <v>32</v>
@@ -790,48 +790,48 @@
         <v>0.2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>1.32938904183295E-4</v>
+        <v>1.4414856559596899E-4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>692</v>
       </c>
       <c r="C13">
         <v>32</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I13" s="2">
-        <v>1.3382489851210201E-4</v>
+        <v>2.20024943700991E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -839,7 +839,7 @@
         <v>43219</v>
       </c>
       <c r="B14">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -848,7 +848,7 @@
         <v>0.2</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -857,39 +857,39 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2">
-        <v>1.4414856559596899E-4</v>
+        <v>1.3041522470302801E-4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B15">
-        <v>56</v>
+        <v>713</v>
       </c>
       <c r="C15">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2">
-        <v>1.5428500870863499E-4</v>
+        <v>6.7749184381682399E-5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -897,7 +897,7 @@
         <v>43219</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>6201</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -918,36 +918,36 @@
         <v>60</v>
       </c>
       <c r="I16" s="2">
-        <v>1.5532261507663199E-4</v>
+        <v>5.7497821981087303E-4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>6203</v>
       </c>
       <c r="C17">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2">
-        <v>1.56424511806108E-4</v>
+        <v>2.8794004271427698E-4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -955,7 +955,7 @@
         <v>43219</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>6204</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -964,7 +964,7 @@
         <v>0.2</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -973,21 +973,21 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2">
-        <v>1.6357034619431899E-4</v>
+        <v>2.0750328840222199E-4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>43226</v>
+        <v>43219</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>6208</v>
       </c>
       <c r="C19">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0.2</v>
@@ -996,33 +996,33 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2">
-        <v>1.7594129700834499E-4</v>
+        <v>3.5210108035243999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>128</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -1034,65 +1034,65 @@
         <v>50</v>
       </c>
       <c r="I20" s="2">
-        <v>1.7686489348610199E-4</v>
+        <v>2.6047159917652602E-4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>60</v>
       </c>
       <c r="I21" s="2">
-        <v>1.769911556039E-4</v>
+        <v>2.5202891750571599E-4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B22">
-        <v>6204</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2">
-        <v>1.90779447439126E-4</v>
+        <v>5.6535391777288101E-4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1100,39 +1100,39 @@
         <v>43226</v>
       </c>
       <c r="B23">
-        <v>6204</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>128</v>
       </c>
       <c r="D23">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2">
-        <v>2.0379575920136001E-4</v>
+        <v>3.31756369754051E-4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B24">
-        <v>6204</v>
+        <v>54</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D24">
         <v>0.2</v>
@@ -1141,65 +1141,65 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I24" s="2">
-        <v>2.0750328840222199E-4</v>
+        <v>2.54427899684136E-4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B25">
-        <v>692</v>
+        <v>55</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I25" s="2">
-        <v>2.20024943700991E-4</v>
+        <v>1.56424511806108E-4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1208,27 +1208,27 @@
         <v>60</v>
       </c>
       <c r="I26" s="2">
-        <v>2.21380987689675E-4</v>
+        <v>1.5428500870863499E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D27">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1237,18 +1237,18 @@
         <v>60</v>
       </c>
       <c r="I27" s="2">
-        <v>2.2797738007890599E-4</v>
+        <v>2.6173890607121E-4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D28">
         <v>0.2</v>
@@ -1257,27 +1257,27 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I28" s="2">
-        <v>2.2889920898402699E-4</v>
+        <v>1.7594129700834499E-4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B29">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D29">
         <v>0.2</v>
@@ -1286,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2">
-        <v>2.3457805024615101E-4</v>
+        <v>2.3508078108231201E-4</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1303,39 +1303,39 @@
         <v>43226</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>690</v>
       </c>
       <c r="C30">
         <v>128</v>
       </c>
       <c r="D30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2">
-        <v>2.3508078108231201E-4</v>
+        <v>1.16248513222672E-4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B31">
-        <v>57</v>
+        <v>692</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D31">
         <v>0.2</v>
@@ -1344,85 +1344,85 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I31" s="2">
-        <v>2.3776498661997399E-4</v>
+        <v>1.2954141129739501E-4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B32">
-        <v>54</v>
+        <v>701</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2">
-        <v>2.3918189884473799E-4</v>
+        <v>9.6734329417813502E-5</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>43233</v>
+        <v>43226</v>
       </c>
       <c r="B33">
-        <v>51</v>
+        <v>713</v>
       </c>
       <c r="C33">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="I33" s="2">
-        <v>2.4032358584614999E-4</v>
+        <v>1.19528434879612E-4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B34">
-        <v>51</v>
+        <v>6201</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D34">
         <v>0.2</v>
@@ -1431,45 +1431,45 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I34" s="2">
-        <v>2.4573218543082399E-4</v>
+        <v>6.1650996406873001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>6203</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D35">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>60</v>
       </c>
       <c r="I35" s="2">
-        <v>2.5011540662186799E-4</v>
+        <v>2.9017404885962601E-4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1477,28 +1477,28 @@
         <v>43226</v>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>6204</v>
       </c>
       <c r="C36">
         <v>128</v>
       </c>
       <c r="D36">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I36" s="2">
-        <v>2.5202891750571599E-4</v>
+        <v>2.0379575920136001E-4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1506,7 +1506,7 @@
         <v>43226</v>
       </c>
       <c r="B37">
-        <v>54</v>
+        <v>6208</v>
       </c>
       <c r="C37">
         <v>128</v>
@@ -1527,18 +1527,18 @@
         <v>50</v>
       </c>
       <c r="I37" s="2">
-        <v>2.54427899684136E-4</v>
+        <v>3.4615721475953799E-4</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B38">
         <v>50</v>
       </c>
       <c r="C38">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>0.2</v>
@@ -1547,53 +1547,53 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I38" s="2">
-        <v>2.6047159917652602E-4</v>
+        <v>2.2797738007890599E-4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B39">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>128</v>
       </c>
       <c r="D39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
       <c r="H39">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I39" s="2">
-        <v>2.6173890607121E-4</v>
+        <v>2.4032358584614999E-4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B40">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>32</v>
@@ -1605,16 +1605,16 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>60</v>
       </c>
       <c r="I40" s="2">
-        <v>2.6422591957573998E-4</v>
+        <v>4.7094177183074201E-4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1622,77 +1622,77 @@
         <v>43233</v>
       </c>
       <c r="B41">
-        <v>6203</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I41" s="2">
-        <v>2.7172730381910999E-4</v>
+        <v>3.2033479268041699E-4</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B42">
-        <v>6203</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>32</v>
       </c>
       <c r="D42">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
       </c>
       <c r="H42">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="I42" s="2">
-        <v>2.8794004271427698E-4</v>
+        <v>2.3918189884473799E-4</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B43">
-        <v>6203</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>60</v>
       </c>
       <c r="I43" s="2">
-        <v>2.9017404885962601E-4</v>
+        <v>1.3382489851210201E-4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1709,7 +1709,7 @@
         <v>43233</v>
       </c>
       <c r="B44">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>32</v>
@@ -1730,7 +1730,7 @@
         <v>60</v>
       </c>
       <c r="I44" s="2">
-        <v>3.2033479268041699E-4</v>
+        <v>1.32938904183295E-4</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1738,7 +1738,7 @@
         <v>43233</v>
       </c>
       <c r="B45">
-        <v>6208</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>32</v>
@@ -1747,135 +1747,135 @@
         <v>0.2</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45">
         <v>60</v>
       </c>
       <c r="I45" s="2">
-        <v>3.2171333247485201E-4</v>
+        <v>2.3776498661997399E-4</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B46">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>128</v>
       </c>
       <c r="D46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
       </c>
       <c r="H46">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I46" s="2">
-        <v>3.31756369754051E-4</v>
+        <v>1.7686489348610199E-4</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B47">
-        <v>6208</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I47" s="2">
-        <v>3.4615721475953799E-4</v>
+        <v>2.21380987689675E-4</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B48">
-        <v>53</v>
+        <v>690</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I48" s="2">
-        <v>3.5046783353512398E-4</v>
+        <v>1.00855453638359E-4</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B49">
-        <v>6208</v>
+        <v>692</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D49">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I49" s="2">
-        <v>3.5210108035243999E-4</v>
+        <v>1.128479198087E-4</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1883,36 +1883,36 @@
         <v>43233</v>
       </c>
       <c r="B50">
-        <v>52</v>
+        <v>701</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D50">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I50" s="2">
-        <v>4.7094177183074201E-4</v>
+        <v>5.5235475883819102E-5</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B51">
-        <v>52</v>
+        <v>713</v>
       </c>
       <c r="C51">
         <v>32</v>
@@ -1921,10 +1921,10 @@
         <v>0.2</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
@@ -1933,7 +1933,7 @@
         <v>60</v>
       </c>
       <c r="I51" s="2">
-        <v>5.3476292620568196E-4</v>
+        <v>7.4150986620224999E-5</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1967,19 +1967,19 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>6203</v>
       </c>
       <c r="C53">
         <v>128</v>
       </c>
       <c r="D53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>100</v>
@@ -1991,71 +1991,594 @@
         <v>50</v>
       </c>
       <c r="I53" s="2">
-        <v>5.6535391777288101E-4</v>
+        <v>2.7172730381910999E-4</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>43219</v>
+        <v>43233</v>
       </c>
       <c r="B54">
-        <v>6201</v>
+        <v>6204</v>
       </c>
       <c r="C54">
         <v>32</v>
       </c>
       <c r="D54">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
         <v>9</v>
       </c>
       <c r="H54">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="I54" s="2">
-        <v>5.7497821981087303E-4</v>
+        <v>1.90779447439126E-4</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="B55">
-        <v>6201</v>
+        <v>6208</v>
       </c>
       <c r="C55">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>0.2</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I55" s="2">
-        <v>6.1650996406873001E-4</v>
+        <v>3.2171333247485201E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>128</v>
+      </c>
+      <c r="D56">
+        <v>0.2</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>200</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>128</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2.1353401825763201E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B57">
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <v>128</v>
+      </c>
+      <c r="D57">
+        <v>0.2</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>200</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>128</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2.5422728892105298E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <v>128</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>256</v>
+      </c>
+      <c r="I58" s="2">
+        <v>4.8166147898882601E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B59">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>128</v>
+      </c>
+      <c r="D59">
+        <v>0.2</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>128</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3.0306809543010997E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B60">
+        <v>54</v>
+      </c>
+      <c r="C60">
+        <v>128</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>256</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2.37513851607218E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B61">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>128</v>
+      </c>
+      <c r="D61">
+        <v>0.2</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>200</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>256</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1.5737182693555899E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B62">
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <v>128</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>256</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.3058912591077301E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B63">
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>128</v>
+      </c>
+      <c r="D63">
+        <v>0.2</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>128</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2.2904031114497501E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B64">
+        <v>58</v>
+      </c>
+      <c r="C64">
+        <v>128</v>
+      </c>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>200</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>256</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1.71499060040029E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B65">
+        <v>59</v>
+      </c>
+      <c r="C65">
+        <v>128</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>200</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>256</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2.0969492131068E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B66">
+        <v>690</v>
+      </c>
+      <c r="C66">
+        <v>128</v>
+      </c>
+      <c r="D66">
+        <v>0.2</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>200</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>256</v>
+      </c>
+      <c r="I66" s="2">
+        <v>8.56348051456734E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B67">
+        <v>692</v>
+      </c>
+      <c r="C67">
+        <v>128</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>200</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>256</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1.3371920795179901E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B68">
+        <v>701</v>
+      </c>
+      <c r="C68">
+        <v>128</v>
+      </c>
+      <c r="D68">
+        <v>0.2</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>200</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>256</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1.8969910161103999E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B69">
+        <v>713</v>
+      </c>
+      <c r="C69">
+        <v>128</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>200</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>256</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1.07968255179002E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B70">
+        <v>6201</v>
+      </c>
+      <c r="C70">
+        <v>128</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>200</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>128</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5.4351451108232104E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B71">
+        <v>6203</v>
+      </c>
+      <c r="C71">
+        <v>128</v>
+      </c>
+      <c r="D71">
+        <v>0.2</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>200</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <v>256</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2.5423711631446998E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B72">
+        <v>6204</v>
+      </c>
+      <c r="C72">
+        <v>128</v>
+      </c>
+      <c r="D72">
+        <v>0.2</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>200</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>256</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1.78239965074074E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B73">
+        <v>6208</v>
+      </c>
+      <c r="C73">
+        <v>128</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>200</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>256</v>
+      </c>
+      <c r="I73" s="2">
+        <v>3.3542117453180201E-4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I55" xr:uid="{3A9CBD82-C3F7-684F-BA80-1E3649762DAB}">
     <sortState ref="A2:I55">
-      <sortCondition ref="I1:I55"/>
+      <sortCondition ref="A2:A55"/>
+      <sortCondition ref="B2:B55"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:I38">
